--- a/CH-067 Index Selections.xlsx
+++ b/CH-067 Index Selections.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB996E1-7E10-4688-96B9-091022399761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB95B9-8C17-4933-A191-876093637374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="1065" windowWidth="23115" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31845" yWindow="2310" windowWidth="28815" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$3:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$J$3:$J$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1044,13 +1044,13 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" style="3" customWidth="1"/>
     <col min="3" max="8" width="7.59765625" style="3" customWidth="1"/>
     <col min="9" max="9" width="20" style="3" customWidth="1"/>
     <col min="10" max="10" width="27.09765625" style="3" bestFit="1" customWidth="1"/>
@@ -1304,7 +1304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1328,7 +1328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1352,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>19</v>
@@ -1424,7 +1424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="6" t="s">
         <v>20</v>
@@ -1448,7 +1448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
         <v>21</v>

--- a/CH-067 Index Selections.xlsx
+++ b/CH-067 Index Selections.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DB95B9-8C17-4933-A191-876093637374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A926039-A63E-4CC5-8852-4ED2516AB2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31845" yWindow="2310" windowWidth="28815" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30075" yWindow="3960" windowWidth="28815" windowHeight="15915" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="MySingleFunction" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$20:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MySingleFunction!$J$3:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$J$3:$J$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="29">
   <si>
     <t>Question ID</t>
   </si>
@@ -118,12 +144,21 @@
   <si>
     <t>Selected Indexes</t>
   </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>Single Function</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +204,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -190,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -349,11 +391,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,16 +453,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFA600"/>
       <color rgb="FFBC5090"/>
-      <color rgb="FFFFA600"/>
       <color rgb="FF58508D"/>
     </mruColors>
   </colors>
@@ -1041,10 +1099,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFBC5090"/>
+  </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -1549,4 +1610,1195 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69040CF-11C1-4D32-914F-C0C4045A0917}">
+  <sheetPr>
+    <tabColor rgb="FFFFA600"/>
+  </sheetPr>
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="7.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9">
+        <v>12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="9">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="b" cm="1">
+        <f t="array" ref="C21:C35">_xlfn.BYROW(C3:H17,_xlfn.LAMBDA(_xlpm.r,SUM(--(_xlpm.r&lt;7))&gt;1))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="str" cm="1">
+        <f t="array" ref="E21:E25">_xlfn._xlws.FILTER(B3:B17,_xlfn.ANCHORARRAY(C21))</f>
+        <v>Index 2</v>
+      </c>
+      <c r="G21" s="3" t="b" cm="1">
+        <f t="array" ref="G21:G25">_xlfn.ANCHORARRAY(E21)=J3:J7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <v>Index 3</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <v>Index 6</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <v>Index 12</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <v>Index 15</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17917C25-4F61-422A-97ED-FAA981C32420}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" style="3" customWidth="1"/>
+    <col min="3" max="8" width="7.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9">
+        <v>12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="9">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5" t="str" cm="1">
+        <f t="array" ref="B22:B27">_xlfn.VSTACK(J2,_xlfn._xlws.FILTER(B3:B17,_xlfn.BYROW(C3:H17,_xlfn.LAMBDA(_xlpm.r,SUM(--(_xlpm.r&lt;7))&gt;1))))</f>
+        <v>Selected Indexes</v>
+      </c>
+      <c r="E22" s="3" t="b" cm="1">
+        <f t="array" ref="E22:E27">_xlfn.ANCHORARRAY(B22)=J2:J7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="11" t="str">
+        <v>Index 2</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="12" t="str">
+        <v>Index 3</v>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="12" t="str">
+        <v>Index 6</v>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="13" t="str">
+        <v>Index 12</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="13" t="str">
+        <v>Index 15</v>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>